--- a/examples/reports/az-az/SalesProcedureParticipantsReportTemplate.xlsx
+++ b/examples/reports/az-az/SalesProcedureParticipantsReportTemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Обзор" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Детали" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Ümumi" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Təfərrüatlar" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -551,11 +551,11 @@
   </sheetPr>
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.67"/>
@@ -568,7 +568,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="12.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="21.67"/>
   </cols>
@@ -963,7 +963,7 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
